--- a/plantnames.xlsx
+++ b/plantnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Desktop\PlantInfo(Project)\PlantInfo(Project)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Field-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE579944-59F1-49FC-942A-975DC04CBE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DE3920-7305-4EFC-99B2-1BAE19CB48CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2364" windowWidth="17280" windowHeight="8880" xr2:uid="{CA387696-9F09-41FE-92A1-54E49F2D76A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CA387696-9F09-41FE-92A1-54E49F2D76A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Malabar Spinach</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Ox Knee</t>
   </si>
   <si>
-    <t>shining karamu</t>
-  </si>
-  <si>
     <t>Sweet Box</t>
   </si>
   <si>
@@ -78,64 +75,10 @@
     <t>Chandada</t>
   </si>
   <si>
-    <t>Croton</t>
-  </si>
-  <si>
-    <t>Coconut Palm</t>
-  </si>
-  <si>
-    <t>Sandpaper Tree</t>
-  </si>
-  <si>
-    <t>Guava Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake Plant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Flag Bush </t>
-  </si>
-  <si>
-    <t>Chinese Love Grass</t>
-  </si>
-  <si>
-    <t>Chinaberry Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasmine </t>
-  </si>
-  <si>
-    <t>Kratom Plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese Jasmine </t>
-  </si>
-  <si>
-    <t>Fishtail Palm</t>
-  </si>
-  <si>
-    <t>Red Bead Tree</t>
-  </si>
-  <si>
-    <t>Sky Flower</t>
-  </si>
-  <si>
-    <t>False Ashoka Tree</t>
-  </si>
-  <si>
-    <t>Agarwood</t>
-  </si>
-  <si>
-    <t>Corn  / Mass Cane Plant</t>
-  </si>
-  <si>
     <t>Hawaiian Ti</t>
   </si>
   <si>
-    <t>Copper Leaf (Green)</t>
-  </si>
-  <si>
-    <t>Copper Leaf (Orange)</t>
+    <t>Copper Leaf</t>
   </si>
 </sst>
 </file>
@@ -526,487 +469,449 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB37A2-2E45-48FD-B7A6-C98CE15FF723}">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
     </row>
   </sheetData>
